--- a/Leçon chimie/LC 4/LC4.xlsx
+++ b/Leçon chimie/LC 4/LC4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15040" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Détermination rendement faradiq" sheetId="1" r:id="rId1"/>
@@ -315,26 +315,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -346,26 +341,43 @@
     <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -695,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -709,173 +721,175 @@
     <col min="4" max="4" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="9" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="6" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>2.48</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3">
         <v>0.1</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <f>0.0001</f>
         <v>1E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <f>(C9/B36)/C10</f>
         <v>9.9919419822723607E-2</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <f>C11*SQRT((D10/C10)^2+(D9/C9)^2)</f>
         <v>4.1510602826876737E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="5" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="6" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="3">
         <f>C11</f>
         <v>9.9919419822723607E-2</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="4">
         <f>D11</f>
         <v>4.1510602826876737E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="15">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="4">
         <f>B32*10^-3</f>
         <v>1.4142135623730954E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="4">
         <f>C15*C14/2</f>
         <v>3.6970185334407737E-4</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="3">
         <f>C16*SQRT((D15/C15)^2+(D14/C14)^2)</f>
         <v>7.2303815570038144E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="6"/>
-      <c r="B17" s="11" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" s="3"/>
+      <c r="B17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="9">
         <f>C16</f>
         <v>3.6970185334407737E-4</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="8">
         <f>D16</f>
         <v>7.2303815570038144E-6</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="15" t="s">
+    <row r="18" spans="1:8">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -890,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -900,119 +914,119 @@
       <c r="C21">
         <v>0.5</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="12">
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:8">
       <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <f>C20*C21/(2*B39)</f>
         <v>4.6639213077742311E-4</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="2">
         <f>C17*SQRT((D21/C21)^2+(D20/C20)^2)</f>
         <v>7.6740006521740559E-6</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:8">
       <c r="B23" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="14">
         <f>(C17/C22)*100</f>
         <v>79.268458652556177</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="14">
         <f>C23*SQRT((D22/C22)^2+(D17/C17)^2)</f>
         <v>2.0259601084462626</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="5" t="s">
+    <row r="26" spans="1:8">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="8" t="s">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="5">
         <v>0.05</v>
       </c>
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="10" t="s">
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="3">
         <v>0.05</v>
       </c>
-      <c r="C29" s="7"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="6" t="s">
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="3">
         <v>0.05</v>
       </c>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="6" t="s">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="3">
         <v>0.1</v>
       </c>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="6" t="s">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="3">
         <f>SQRT(2*(B28)^2+(B29)^2+(B30)^2+(B31)^2)</f>
         <v>0.14142135623730953</v>
       </c>
-      <c r="C32" s="6"/>
+      <c r="C32" s="3"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="9"/>
+      <c r="B35" s="6"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="6">
         <v>248.2</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="6">
         <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="13">
         <v>96485.332899999994</v>
       </c>
     </row>
@@ -1049,18 +1063,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="16"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
@@ -1105,7 +1119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/Leçon chimie/LC 4/LC4.xlsx
+++ b/Leçon chimie/LC 4/LC4.xlsx
@@ -22,9 +22,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
-  <si>
-    <t>Détermination de la constante de solubilité de l'iodure de Plomb</t>
-  </si>
   <si>
     <t>Méthode utilisée</t>
   </si>
@@ -193,6 +190,9 @@
   </si>
   <si>
     <t xml:space="preserve">% massique en eau </t>
+  </si>
+  <si>
+    <t>Détermination du rendement faradique de l'électrolyse d'une solution de NaCl(aq)</t>
   </si>
 </sst>
 </file>
@@ -346,6 +346,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -364,10 +368,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -722,12 +722,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="A1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -737,32 +737,32 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="A8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3">
         <v>2.48</v>
@@ -773,10 +773,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="C10" s="3">
         <v>0.1</v>
@@ -789,7 +789,7 @@
     <row r="11" spans="1:7">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3">
         <f>(C9/B36)/C10</f>
@@ -801,25 +801,25 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="A13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3">
         <f>C11</f>
@@ -832,10 +832,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="C15" s="15">
         <v>7.4000000000000003E-3</v>
@@ -849,7 +849,7 @@
     <row r="16" spans="1:7">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="4">
         <f>C15*C14/2</f>
@@ -863,7 +863,7 @@
     <row r="17" spans="1:8">
       <c r="A17" s="3"/>
       <c r="B17" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="9">
         <f>C16</f>
@@ -881,20 +881,20 @@
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="A19" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
         <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>28</v>
       </c>
       <c r="C20">
         <f>60*3</f>
@@ -906,10 +906,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
         <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
       </c>
       <c r="C21">
         <v>0.5</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="B22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2">
         <f>C20*C21/(2*B39)</f>
@@ -933,7 +933,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="14">
         <f>(C17/C22)*100</f>
@@ -948,15 +948,15 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" s="5">
         <v>0.05</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" s="3">
         <v>0.05</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" s="3">
         <v>0.05</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="3">
         <v>0.1</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" s="3">
         <f>SQRT(2*(B28)^2+(B29)^2+(B30)^2+(B31)^2)</f>
@@ -1002,13 +1002,13 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B35" s="6"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36" s="6">
         <v>248.2</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37" s="6">
         <v>166</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="13">
         <v>96485.332899999994</v>
@@ -1063,22 +1063,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="A1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="16"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>3.6</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>3.5</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <f>100*(B6/B5)</f>
@@ -1129,16 +1129,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="A1" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>3.5</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>3.2</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <f>100*(B3-B4)/B4</f>
